--- a/Kitabevi Modellemesi.xlsx
+++ b/Kitabevi Modellemesi.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>KİTABEVİ MODELLEMESİ</t>
   </si>
@@ -491,13 +492,40 @@
   </si>
   <si>
     <t>Structured Query Language</t>
+  </si>
+  <si>
+    <t>İl adı, ilçe adı, eğitim durumu, okul, üniversite adı, çalışılan pozisyon…..</t>
+  </si>
+  <si>
+    <t>2. ANA TABLOLAR /  GENEL TABLOLAR</t>
+  </si>
+  <si>
+    <t>Kitaplar, Ürünler, Personel, Müşteriler, Tedarikçiler, Hesaplar…..</t>
+  </si>
+  <si>
+    <t>3. HAREKETLİLİK TABLOLARI</t>
+  </si>
+  <si>
+    <t>1. SÖZLÜK / REHBER TABLOLARI</t>
+  </si>
+  <si>
+    <t>Girişler, Satışlar, Not Girişleri, ToplantıTakibi, Gönderilen Mesajlar,…..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İçinde çoğunlukla id no ve o id noya ait bir içerik barındıran, çok nadir 3 .alana sahip olan tablolardır. Yaratılma sebebi , başka tablolarda terkrarlanan alan verilerini hatalı girişlere ve veri kayıplarına karşın bir tabloda yedeklenmesini sağlamaktır. Bu tabloya gerektiğinde yabancıl anahtar alan ( foreign key) ile referans için başvurulur.  </t>
+  </si>
+  <si>
+    <t>Bir ürün, kişi, kurum, bina gibi kavramlara ait , o kavramı oluşturan ve o kavramı tamamlayacak tüm bilgi alanlarının verilerinin tutulduğu tablolardır. Bu tür tablolar çoğunlukla veritabanı yapısının / modellemesinin ana enstrumanıdır. Veri girişi yapılırken eğer içlerindeki kayıt satırlarında  tekrarlanma ihtimali yüksek  veriler olacaksa bu veriler ilgili sözlük tablolarından foreign key kısıtlaması getirilerek çekilecek referans veriler ile temsil edilmelidir. Bu durum VERİLERİN TUTARLILIĞI ile isimlendirilir. Aksi duruma ise VERİLER ARASI TUTARSIZLIK ( inconsistency )  denir.</t>
+  </si>
+  <si>
+    <t>Veritabanının oluşturulmasına amaç olan hareketlerin takibi için yaratılan tablolardır. Bu tür tablolara kayıt işlemi çoğunlukla hemen hemen her gün defalarca yapılır. Kayıt işlemi sırasında çoğu alanlarının veri girişi foreign key kısıtlaması ile referans alınan diğer tablolar ile ilişkilendirilerek yapılır. Bu tablolar genellikle ana tablolar olur. Veritabanının kapladığı alan içinde en büyük payı bu tür tablolar alır. Çoğunlukla üzerlerinde en fazla sorgu işleminin yapıldığı tablolardır.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,13 +577,34 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -585,15 +634,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -601,12 +657,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -887,29 +943,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -934,10 +990,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="9"/>
       <c r="D3" t="s">
         <v>45</v>
       </c>
@@ -952,10 +1008,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="8"/>
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -970,10 +1026,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -1021,10 +1077,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="8"/>
       <c r="G8" t="s">
         <v>15</v>
       </c>
@@ -1033,10 +1089,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="G9" t="s">
         <v>55</v>
       </c>
@@ -1045,10 +1101,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="8"/>
       <c r="M10" t="s">
         <v>58</v>
       </c>
@@ -1177,14 +1233,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1199,4 +1255,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A12:Q12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>